--- a/src/test/java/com/testData/LetsVentureTestDta.xlsx
+++ b/src/test/java/com/testData/LetsVentureTestDta.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
   <si>
     <t>Email</t>
   </si>
@@ -121,10 +121,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
@@ -442,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4675ECD3-FA31-446C-AD27-98D9EB6AFCCC}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
@@ -469,6 +470,9 @@
       <c r="D1" t="s" s="4">
         <v>7</v>
       </c>
+      <c r="E1" t="s" s="5">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
